--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.120920-3.xlsx_with_dialog_acts.xlsx
@@ -807,12 +807,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1357,12 +1357,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2199,12 +2199,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2745,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5447,12 +5447,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5489,12 +5489,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6075,12 +6075,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6495,12 +6495,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7549,12 +7549,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7717,12 +7717,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9313,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9861,12 +9861,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
